--- a/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this hearing of the Subcommittee on Europe, Eurasia, and Emerging Threats. Today's topic is progress and challenges in the Western Balkans.    After the ranking member and I each take 5 minutes to make opening remarks, each other member, if they so choose, will have the opportunity for making an opening statement as well. We will then proceed with our first panel of witnesses and without objection, all members will have 5 days to submit their statements or questions or extraneous material for the record. Hearing no objection, so ordered.    It has been almost exactly 2 years since the last time the subcommittee held a hearing on this region. I am pleased to again be returning to this important topic and to be able to hear from such informed witnesses. We all know the tragic history of the breakup of Yugoslavia during the 1990s. Yet, it is remarkable that today, every country in the region, including Serbia, is in some way seeking greater integration with European institutions. I congratulate Croatia, for example, which is perhaps the foremost example of this on their successful accession into the European Union in 2013. And while the region has witnessed some major steps forward over the last two decades including the independence of Kosovo, the pace of progress appears to have slowed and perhaps even regressed in certain cases.    Later this year, we will celebrate the 20-year anniversary of the Dayton Peace Accords which ended the Bosnian War. Reaching that agreement was an admirable diplomatic accomplishment. Yet, the political framework that ended the fighting has proven structurally unable to build a state which governs effectively or meets the expectations of its people.    I noted that over the weekend, the leader of the Republic of Srpska called for a referendum to determine if the Serb enclave in Bosnia should break away unless it is granted further autonomy. Clearly, the current arrangement in Bosnia is not working. In Macedonia, the exposure of a massive internal surveillance scheme has rocked that small nation, highlighting the immense challenges of building a state which respects the rule of law and the rule of law both inside the government and the rule of law outside the government.    Next door, EU brokered peace talks between Serbia and Kosovo just a few years ago, resulting in an agreement entitled ``Principles of Governing the Normalization of Relations.'' While we are all happy that a solution was reached between these two sides, there remains ample reason for concern. I remain doubtful about the prospect of integrating Serbs, for example, who live in the northern part of Kosovo and I am somewhat doubtful about them integrating into the rest of the country. If the Serb community in the northern part of Kosovo which is to be governed by Belgrade, we should acknowledge their right to determine for themselves what country they will live in and make their own self-determination. This is the same principle, I might add, that led us to support the Albanian Kosovars in their desire for self-determination two decades ago.    In closing, the Western Balkans collectively have been aided by deployment of at least three separate NATO missions which included a significant contingent of U.S. military personnel who I visited over the years. Billions of dollars have been spent by the European Union and our own Government to support economic development, reduce ethnic tensions, and build modern states. Between 1990 and 2012, USAID spent over $1.7 billion aid dollars to help the Western Balkans. And what has that huge sum of money accomplished over the years? What about the diplomatic accomplishments, what have they achieved or what are their efforts anyway? And has outside engagement reached an effective limit there in that part of the world? And to get answers for some of those questions and others, we will hear from our witnesses today.    Panel 1, first of all--Mr. Sires, would you like to have an opening statement? And then I will introduce the witnesses.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding this hearing today to evaluate the state of the affairs in the Balkans. Since the mid-1990s, the region has undergone a great transformation as the wars have ended and political and economic reforms have set in. The region also progressed toward greater integration with European and transatlantic institutions. While great improvements have been made in the Balkans, various challenges still remain including dealing with the impact of Kosovo's independence and the on-going fight against organized crime and corruption in the region.    As we have witnessed over the past year, Russia continues to get influence outside of the borders, forcing the surrounding regions, including the Balkans to be on high alert. More than ever, it is imperative that we continue to be engaged in the Balkans to ensure democracy, security, and prosperity in the region. And I look forward to hearing from the esteemed panels that we have today. Thank you.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Yee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yee. Thank you very much, Mr. Chairman. Chairman Rohrabacher, Representative Sires, members of the subcommittee, I want to thank you for inviting me and my colleague, Susan Fritz, to appear before you today to discuss the Western Balkans 20 years since the Dayton Accords were signed. We are deeply grateful to the Congress and this subcommittee, in particular, for your interest in the Western Balkans which are an integral part of our vision of a Europe, whole, free, and at peace. Your engagement with senior Balkan officials, both here and in the region has sent a powerful signal that the United States remains committed to the region's future.    Today that vision is more under threat than any time since the end of the Cold War. Russia's aggression in Ukraine and ISIL's reign of terror in Syria and Iraq have underlined the geostrategic importance of a strong, stable Europe including in the Western Balkans. In this new context, our work with Balkan partners to create a space for free markets and free peoples is more important than ever.    EU and NATO membership, aided by U.S. engagement and assistance remains the transformative political and economic force for the Western Balkans. Progress is happening. Albania and Croatia joined NATO in 2009. Croatia became the 28th EU member in 2013. Montenegro is making steady progress on EU accession negotiations and is intent on qualifying for NATO membership. Albania's recent elections were the best democratic transition in that country's history. Serbia and Kosovo are making landmark progress toward normalization. And lastly, Bosnia and Herzegovina has negotiated its EU Stabilization and Association Agreement. I would like to give just a quick update on the region's seven countries.    Bosnia and Herzegovina. Bosnia and Herzegovina remains one of the poorest countries in Europe and lags far behind the rest of the region in reforms needed for membership in the European Union and NATO. To catch up, Bosnia and Herzegovina will need to accelerate reforms. We and our European partners have urged Bosnia and Herzegovina to begin with socio-economic reforms that can make a tangible impact in the lives of Bosnia and Herzegovina citizens. These initial reforms must lead to institutional and political reforms that Bosnia and Herzegovina needs to become a stable, functional state, fully integrated with the rest of Europe. We believe that the future of Bosnia and Herzegovina lies in the EU and NATO, and like all other candidates Bosnia and Herzegovina will have to undertake substantial reform.    With the recent establishment of new state and entity-level governments that have reaffirmed their commitment to reform, we are hopeful the countries' leaders can deliver results.    Serbia. Serbia continues to improve relations with its neighbors and to build a stronger partnership with the European Union and the United states.    In January, Serbia assumed the chairmanship of the Organization for Security and Cooperation in Europe, the OSCE, and Serbia's leadership thus far has shown a strong commitment to supporting the organization's founding principles. We continue to support Serbia's aspirations to join the European Union and to commend Serbia's progress toward this goal.    Serbia has also recently taken steps to maintain constructive relations with neighbors, including Belgrade's hosting of Albanian Prime Minister Rama in November 2014, the first visit at that level between the two countries in 68 years. Most encouraging, Serbia's commitment to the EU-led Brussels dialogue with Kosovo has resulted in more normalized relationships, increased regional security, and mutual understanding.    Kosovo. Seven years after its declaration of independence, Kosovo has taken great strides to develop as a full sovereign, independent state. We continue to support Kosovo in its efforts to build a modern, multiethnic state with inclusive, democratic institutions. With the strong support of EU High Representative Mogherini, considerable progress on the Kosovo-Serbia dialogue has been made since both sides reconvened in February 2015, including with agreements to unify Kosovo's judicial system and to integrate the Kosovo-Serb Civilian Protection Corps into Kosovo institutions.    We also support the establishment of a Special Court to deal with the allegations contained in the 2011 Council of Europe report and urge Kosovo's leaders to take steps to approve the necessary legal framework.    Albania. Albania has seen significant democratic progress since the ending of oppressive communist rule 20 years ago. Last June, the European Council granted Albania EU country candidate status. In granting the status, the Council highlighted Albania's efforts at countering corruption and organized crime, and implementing judicial reform.    With over 1 year in office, the new government continues to hold Albania's strong partnership with the United States as a key strategic priority. We recently signed a U.S.-Albania strategic partnership, outlining key areas of cooperation, including security, rule of law, economic development and energy security. Nevertheless, much work lies ahead.    Despite receiving EU candidate status, Albania will face significant challenges implementing the reforms necessary for beginning EU accession talks.    Montenegro. Montenegro which began EU accession talks in June 2013 has come a long way. However, the European Union noted in October, a lack of credible investigations, prosecutions, and final convictions in corruption cases and serious concerns regarding freedom of expression and the media.    NATO has also urged Montenegro to strengthen the rule of law to improve its case for receiving an invitation to join NATO by the end of 2015. We agree with our NATO allies that no one outside the 28 member states, including Russia can interfere with or veto NATO's decisions on membership. We are also concerned about the relatively low level of Montenegrin public support for NATO membership, currently about 38 percent. Our hope is that Montenegro will accelerate the pace of its efforts and put its best case forward this year.    Macedonia. We support Macedonia's aspirations to join NATO and the European Union. Recently, however, we and our European partners have been following with concern the domestic political crisis in Macedonia related to the release of wiretap information by the head of the main opposition party. We are urging the government to address the leaked information in a way that demonstrates its commitment to Euro-Atlantic principles. We are encouraging the opposition which is currently boycotting Parliament to return to that body and help resolve the crisis. We are also concerned about a growing divide between the ethic-Macedonian majority and ethnic-Albanian minority communities.    Macedonia's integration into the EU and NATO remains important for achieving lasting peace and stability in the region. With a new government in Athens, we continue to urge both sides to arrive at a mutually acceptable solution to the so-called name issue which has blocked the country's Euro-Atlantic prospects.    Croatia. In July 2013, Croatia became the newest EU member and is now sharing lessons it learned with its neighbors who aspire to join the EU and NATO. Yet, challenges still lie ahead. The economy has contracted for the last 6 years, causing high unemployment and deterring further foreign investment. We encourage Croatia to take steps to improve the business climate, attract more investment and foster private sector led growth. Although much more work needs to be done, we welcome the recent tender for a business plan to develop the liquid natural gas, or LNG, terminal on Krk Island. The realization of this terminal will not only help Croatia reduce dependency on Russia or any other single source of gas, but also provide energy diversification for other central European countries who are much more dependent on Russian energy supplies.    Thank you, Mr. Chairman, Ranking Member Meeks, members of the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. We have been joined by Mr. Meeks and with your permission, Mr. Meeks, I will have Ms. Fritz' testimony and then you will be able to give your opening statement, etcetera.</t>
   </si>
   <si>
-    <t>Fritz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fritz. Thank you, Mr. Chairman, Chairman Rohrabacher, Ranking Member Meeks, and Congressman Sires. I want to thank you for the opportunity to appear before you today, along with my colleague, Hoyt Yee, to discuss USAID's assistance and priorities in the Balkans    The mission of the U.S. Agency for International Development is to partner to end extreme poverty and promote resilient, democratic societies while advancing our security and prosperity. In the Balkans, USAID has played a key role since the breakup of Yugoslavia, helping raise standards of living and assisting countries on their path toward Euro-Atlantic integration and to becoming more tolerant, stable, and democratic societies. USAID is committed and focused on how we build on this momentum to address the serious remaining challenges as part of a coordinated U.S. Government strategy. Corruption, democratic drift, fragile economies, and uncertain domestic political climates all threaten the gains made since the Dayton Accords were signed 20 years ago.    Today, I would like to build on Deputy Assistant Secretary Hoyt Yee's updates on the five individual countries where USAID continues to work with a particular focus on how our programs have impacted some of the foreign policy priorities DAS Yee mentioned, such as preventing violent extremism, supporting governments and societies in becoming more stable and resilient to potentially detrimental external influences, and strengthening the region's economic health.    USAID's longstanding role in the Balkans and across Europe and Eurasia is to work with host countries, civil society, private sector and international partners to build the institutions of government, the economic systems, and the free civil societies that lead to democracy and prosperity. Our job is to help build the foundations of ``a Europe Whole, Free, and at Peace.''    Let me highlight a few examples of our democracy and governance activities in the region. In Bosnia and Herzegovina, USAID's assistance to Parliament staff and members has helped them to complete their legally mandated budget process which includes public debates on priorities and impact analyses, leading to more functional and accountable institutions across the entire government that better meet the needs of the citizens.    In Serbia and Kosovo, our activities have strengthened rule of law by improving the independence, transparency, efficiency and professionalism of the judiciary. Our anti-corruption assistance in Serbia has been pivotal to increasing the transparency and overall capacity of key independent agencies to execute their mandates.    In Macedonia, USAID's media program has increased the legitimacy of independent media and strengthened freedom of expression by promoting investigative journalism and establishing a media fact-checking service which has published online more than a thousand peer reviews of media articles.    In Albania, USAID is providing assistance to strengthen local government accountability, financing and services including the crafting of a fiscal decentralization framework and a critical law for the structuring of local government. In the economic sphere, USAID programs in the Balkans are bolstering entrepreneurs as well, as the laws and policies have let them thrive in stable financial systems.    We help governments to establish energy policies, to diversify supplies, and connect to European markets, increasing safe, clean power for industry and citizens.    Let me highlight a few examples of our economic growth efforts. In Bosnia, USAID's assistance and loan guarantees, particularly to small agribusinesses is helping to increase sales and exports. Our Farmer Project, for example, reported increased sales for companies assisted by USAID of 54 percent over 4 years. USAID helped the Albanian Government to achieve critical reports in the energy market, resulting in the electricity company saving $75 million last year through implementation of practical loss reduction techniques that were provided by our advisors.    USAID's critical support to Kosovo's Government to unbundle electricity distribution and supply enabled it to privatize the Kosovo Energy Corporation resulting in improved infrastructure investment, billing and collections, reducing technical and commercial losses.    In Macedonia, we are helping streamline laws and regulations for clean, renewable energy to promote more investment in the sector. We have also expanded access to finance for small and medium businesses.    In Serbia, USAID assistance was instrumental in reforming Serbia's labor law, reducing the burdens of its inspection system and is modernizing its outdated construction permitting system.    USAID is working to improve the competitiveness of the private sector, especially economically disadvantaged regions populated by ethnic minorities.    Mr. Chairman, since Dayton, the Balkan countries have made remarkable progress in the reforms needed to further integrate into Euro-Atlantic institutions and to build resilient democracies. With that said, we know that our work in this region is far from done. We recognize, as you have pointed out, that there has been political and economic stagnation in the region. The Balkan countries where USAID works, Albania, Macedonia, Kosovo, Serbia, and Bosnia and Herzegovina need continued U.S. engagement and attention.    We look forward to working with you and your colleagues in Congress to strengthen U.S. engagement and more specifically, USAID's activities in the Balkans to build on the progress that has been made to achieve our goal of a Europe, free, whole and at peace.    Thank you again and I look forward to your questions.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman, and I want to thank you for holding this hearing to provide us with the status update on the Western Balkans region and I look forward to working with you in this 114th Congress on this region and as we have been talking about look forward to visiting this region soon so that we can go and see for ourselves what is going on on the ground.    With the West's attention justifiably being attracted to the Ukraine and related issues, we must not forget the importance and the delicate state of progress in the Western Balkans and I am encouraged by this hearing on the region to reaffirm our stance support for its peaceful and prosperous future.    Today's hearing is for me an opportunity to examine the tough issues and potential for advancements for a region that has a lot of promise. The quagmire of the Balkan Wars of the 1990s gives us a reference point for today's hearing. As the region spiraled into chaos, the United States and NATO led an international effort to put an end to the killing. The war set the region back in its move toward democracy and free-market capitalization and continued to haunt its citizens and policy makers. Western thinkers tend to present the Western Balkans' history and current events through two different lenses in my opinion, one that reckons that outside involvement played the leading role in getting us to the wars and consequently the current situation, while the other claims that the fate of Yugoslavia was doomed regardless of what outsiders did.    In today's hearing, I would like to argue the role of the Balkan people themselves who are often dismissed in these discussions. As much as recently written histories and international bodies affect the current situations here, it is the decisions of local politicians, businesses, and citizens that will definitely decide where this region will go. It is up to us and Congress to support healthy democratic, economic, and peaceful progress on the ground. We, the United States, have invested billions of dollars and many lives in order to ensure peace and prosperity in the region. The people there who have sacrificed more deserved it. In fact, there are signs of promise across the region. The regions are over a decade without armed conflict. Croatia, a reliable NATO partner, joined the EU in July 2013. And Serbia is technically on track to follow suit later this decade.    Freedom House named Kosovo, an electoral democracy for the first in their 2015 report. Montenegro recently passed substantial reforms to the rule of law and the defense and intelligent sectors, taking it closer to NATO membership. These are all encouraging steps in the right direction that should be recognized and supported.    Nevertheless, change is rarely linear and we will examine the breaks that impede progress as they apply to specific states. Sluggish economic growth, continuing problems in the fight against corruption, and serious questions with regard to the rule of law beset the region with an undertow pulling against the progress that had been made.    How can Congress support regional actors in combating these forces? And what about the EU? How much progress can be made without a bold accession strategy from the regional power, the EU. Ensuring the success of the region's development and encouraging democratic progress is of strategic importance to the United States and our interest are critically linked.    So I hope, as I have heard some of the testimony already, the opinions on this fascinating region, the leaders of the governments there should know that we are concerned with the state of affairs and after this hearing we look forward to following up on what is discussed. The fragile piece of the region is one that we, together with our EU partners must work hard at and encouraging.    I look forward to a fruitful discussion and questions that we can explore what Congress can offer and do to help to ensure economic growth, equality and peace for all in the region.    Thank you for giving me that opportunity, Mr. Chairman.</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t xml:space="preserve">    Mr. Rohrabacher. This hearing will come to order. I wonder if someone could close that door.</t>
   </si>
   <si>
-    <t>DioGuardi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DioGuardi. The reason why they opened it was it got so warm, but now that a lot of people have left, maybe it is better. Just close one side. All right, close them both. The State Department has left, so it is nice and cool now.</t>
   </si>
   <si>
@@ -308,9 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. A former Member of Congress, and a prominent Albanian-American leader. He worked to focus the attention of the American Government on the Balkans. He is responsible for helping to bring about the first congressional hearing on Kosovo that we ever had. That goes all the way back to 1987 and today he is president of the Albanian American Civic League and is very active in the region. So we are very pleased to have both of you with us today. I would ask you to take 5 minutes and then we will go into questions from there. First, Mr. Vejvoda.</t>
-  </si>
-  <si>
-    <t>Vejvoda</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vejvoda. Mr. Chairman, thank you very much for your kind introduction and thank you again for organizing this hearing. As you said, there hasn't been one in 2 years and I would submit to you that that is already a sign of progress. That means that there hasn't been anything radical in the region that would provoke a hearing. And I would like to try and say why I believe there has been progress over all these years and it is an honor to be testifying with the Honorable DioGuardi. Thank you so much.    This is about the integration post Second World War Europe, a part of Europe that was left behind the Iron Curtain. Of course, the former Yugoslavia was not. It was in between NATO and the Warsaw Pact, a relatively independent country in terms of its foreign policy. And it slumbered into complete destruction when everybody thought there would never be war in Europe at the end of the 20th century. My country disappeared in front of me and is today seven countries.    Why has there been progress? Well, very simply because there has been serious reconciliation. We haven't talked at all about regional cooperation which is very intense. Just to give you two examples, the military intelligences of all the countries regularly meet twice a year to exchange experiences, youth meets, cultural festivals. There has been a reconstitution of the cultural and societal space after a conflict rather rapidly. We like to say in the region, I am from Belgrade myself, that wars are quick to happen, but they also subside very quickly and people get back to their business.    In spite of all the difficulties that remain, I need not remind you and this country that the scars of the Civil War remain after a long time, after that conflict as we celebrate 150 years of the end of the War. I think here we have moved very rapidly. And the fact that we have a European Union that is, in essence, a peace project after World War II and having to impede war is the main reason why these countries want to join, because they were not democratic. They were not encompassed by this peace project and the fact that the European Union has been so long as peace is one of the key reasons why they want to join. Nobody in the region is oblivious to the fact that Europe has problems, that the Euro zone is in crisis, that growth rates are slow.    And let me just give you one financial statistic. Greece, at the height of the crisis in 2010, had a GDP of $300 billion. If you put all the GDPs of all the former six Yugoslav republics, it barely reached $200 billion. What I am saying is these are small countries. They are weak economies. They had growth rates up until Lehman Brothers disappeared off the streets of New York of 7 to 8 percent. And thus, we suffered with the rest of the world back to low growth rates of 1 to 2 percent, minus 1 percent. And I would say there is nothing unusual in the Balkans about that because that is what happened to the rest of the world.    These countries are highly dependent on foreign direct investments. If you look at the trade patterns, we are fully trading with the European Union and the United States. We have many companies from the U.S. in the region. And in fact, they were calling from the Senate, Chris Murphy visited the region recently and was able to see for himself.    In comparison, Russia is very low on all of those charts in terms of aid and public forums and we can get back to that if you wish.    So what I am saying is that the European Union has put in a lot of money. USAID has been a key actor as has been the U.S. Government. Only yesterday, the German Foreign Minister Steinmeier visited Belgrade to see how things were progressing. He gave high marks for the reforms in Serbia and of course, complimented both Kosovo and Serbia on the advance they were making. These are historical, difficult challenges. And the fact that the leaders of both Kosovo and Serbia have found it in themselves to make this historical compromise and to move forward with all the difficulties, I would submit to you that it is great progress.    Of course, the fact that the growth rates are low that we have very high youth unemployment. In Bosnia, youth unemployment is above 60 percent. And the fact that we have a brain drain again is not unusual. Look at Spain. Look at Italy. Look at Portugal. Lots of young professionals, IT, are moving north into Scandinavia and into Germany. Again, I want to relativize the fact that we have problems because those of us around us have problems.    But I would like to underscore that it is about politics and geopolitics here. This region is what I call the inner courtyard of Europe. We are surrounded in the Western Balkans by full EU, full NATO member states. And all of the governments for the past 15 years, I take the fall of Milosevic as kind of the last hurdle, as the region moves forward, have determined to both join the EU and to join NATO except Serbia that still seeks a situation of neutrality. And the fact that there is this determination in spite of all is very important. And thus, I think, an invitation coming to Montenegro to join NATO, of course, if the marks are high in the boxes that it has to tick off, is most welcome because it demonstrates that the open-door policy of NATO is the reality. After 2009, so it is 6 years since the last enlargement round of NATO, and taking in Montenegro which would make the full northern coast of the Mediterranean, that is the only little part that remains not part of NATO would be symbolically and geopolitically very important.    And so the EU is working very hard and I would like to underscore the role of Germany. Along with other EU member states, it has taken a lead role. Chancellor Merkel has convened something called the Berlin Process. All the prime ministers of the region were convened to Berlin. They will meet again in Vienna in August and they were in Brussels just 10 days ago with the High Representative Mogherini to look at concrete infrastructure projects. Serbia and Kosovo are negotiating a highway that they will build together. A railroad is being built, a high-speed one between Belgrade and Budapest. So in spite of these difficulties and no one wants to underestimate them or neglect them, that is what life is about, to confront the challenges. I would say that there is leadership.    And I would also like to underscore the importance of civil society and the strength that it has and it requires full support from donors like USA, from the Balkan Trust that is still active. And thus this combination of leadership with support from the United States and the European Union, I think, will help us achieve that Europe whole, free, and at peace that is, I think, a common goal to all of us.    Thank you, Mr. Chairman.</t>
@@ -925,11 +904,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -949,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -977,11 +952,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1001,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1029,11 +1000,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1053,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1081,11 +1048,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1105,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1133,11 +1096,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1157,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1183,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1209,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1235,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1261,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1287,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1313,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1341,11 +1288,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1365,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1393,11 +1336,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1417,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1445,11 +1384,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1469,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1497,11 +1432,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1521,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1549,11 +1480,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1573,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1601,11 +1528,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1625,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1653,11 +1576,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1677,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1705,11 +1624,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1729,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1757,11 +1672,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1781,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1809,11 +1720,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1833,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1861,11 +1768,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1885,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1913,11 +1816,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1937,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1965,11 +1864,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1989,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2017,11 +1912,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2041,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2069,11 +1960,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2093,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2121,11 +2008,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2145,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2173,11 +2056,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2197,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2223,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2249,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2275,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2301,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2327,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2353,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2379,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2405,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2431,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2457,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2483,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2509,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2535,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2561,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2589,11 +2440,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2613,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2639,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2667,11 +2512,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2691,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2719,11 +2560,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2743,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2771,11 +2608,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2797,11 +2632,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2821,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2849,11 +2680,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2873,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2901,11 +2728,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2925,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2953,11 +2776,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2977,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3005,11 +2824,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3029,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3057,11 +2872,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3081,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3109,11 +2920,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3133,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3161,11 +2968,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3185,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3213,11 +3016,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3237,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3265,11 +3064,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3289,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3317,11 +3112,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3341,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3369,11 +3160,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3393,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3421,11 +3208,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3445,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3473,11 +3256,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3497,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3525,11 +3304,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3549,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3577,11 +3352,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3601,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3629,11 +3400,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3653,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3681,11 +3448,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3705,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3733,11 +3496,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3757,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3785,11 +3544,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3809,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3837,11 +3592,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3861,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3889,11 +3640,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3913,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3941,11 +3688,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3965,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3993,11 +3736,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4017,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4045,11 +3784,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4069,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4097,11 +3832,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4121,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4149,11 +3880,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4173,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4201,11 +3928,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4225,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4253,11 +3976,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4277,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4303,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4331,11 +4048,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4355,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4383,11 +4096,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4407,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4435,11 +4144,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4459,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4487,11 +4192,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4511,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4539,11 +4240,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4563,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4589,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4617,11 +4312,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4641,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4667,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4693,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4721,11 +4408,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4745,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4773,11 +4456,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this hearing of the Subcommittee on Europe, Eurasia, and Emerging Threats. Today's topic is progress and challenges in the Western Balkans.    After the ranking member and I each take 5 minutes to make opening remarks, each other member, if they so choose, will have the opportunity for making an opening statement as well. We will then proceed with our first panel of witnesses and without objection, all members will have 5 days to submit their statements or questions or extraneous material for the record. Hearing no objection, so ordered.    It has been almost exactly 2 years since the last time the subcommittee held a hearing on this region. I am pleased to again be returning to this important topic and to be able to hear from such informed witnesses. We all know the tragic history of the breakup of Yugoslavia during the 1990s. Yet, it is remarkable that today, every country in the region, including Serbia, is in some way seeking greater integration with European institutions. I congratulate Croatia, for example, which is perhaps the foremost example of this on their successful accession into the European Union in 2013. And while the region has witnessed some major steps forward over the last two decades including the independence of Kosovo, the pace of progress appears to have slowed and perhaps even regressed in certain cases.    Later this year, we will celebrate the 20-year anniversary of the Dayton Peace Accords which ended the Bosnian War. Reaching that agreement was an admirable diplomatic accomplishment. Yet, the political framework that ended the fighting has proven structurally unable to build a state which governs effectively or meets the expectations of its people.    I noted that over the weekend, the leader of the Republic of Srpska called for a referendum to determine if the Serb enclave in Bosnia should break away unless it is granted further autonomy. Clearly, the current arrangement in Bosnia is not working. In Macedonia, the exposure of a massive internal surveillance scheme has rocked that small nation, highlighting the immense challenges of building a state which respects the rule of law and the rule of law both inside the government and the rule of law outside the government.    Next door, EU brokered peace talks between Serbia and Kosovo just a few years ago, resulting in an agreement entitled ``Principles of Governing the Normalization of Relations.'' While we are all happy that a solution was reached between these two sides, there remains ample reason for concern. I remain doubtful about the prospect of integrating Serbs, for example, who live in the northern part of Kosovo and I am somewhat doubtful about them integrating into the rest of the country. If the Serb community in the northern part of Kosovo which is to be governed by Belgrade, we should acknowledge their right to determine for themselves what country they will live in and make their own self-determination. This is the same principle, I might add, that led us to support the Albanian Kosovars in their desire for self-determination two decades ago.    In closing, the Western Balkans collectively have been aided by deployment of at least three separate NATO missions which included a significant contingent of U.S. military personnel who I visited over the years. Billions of dollars have been spent by the European Union and our own Government to support economic development, reduce ethnic tensions, and build modern states. Between 1990 and 2012, USAID spent over $1.7 billion aid dollars to help the Western Balkans. And what has that huge sum of money accomplished over the years? What about the diplomatic accomplishments, what have they achieved or what are their efforts anyway? And has outside engagement reached an effective limit there in that part of the world? And to get answers for some of those questions and others, we will hear from our witnesses today.    Panel 1, first of all--Mr. Sires, would you like to have an opening statement? And then I will introduce the witnesses.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding this hearing today to evaluate the state of the affairs in the Balkans. Since the mid-1990s, the region has undergone a great transformation as the wars have ended and political and economic reforms have set in. The region also progressed toward greater integration with European and transatlantic institutions. While great improvements have been made in the Balkans, various challenges still remain including dealing with the impact of Kosovo's independence and the on-going fight against organized crime and corruption in the region.    As we have witnessed over the past year, Russia continues to get influence outside of the borders, forcing the surrounding regions, including the Balkans to be on high alert. More than ever, it is imperative that we continue to be engaged in the Balkans to ensure democracy, security, and prosperity in the region. And I look forward to hearing from the esteemed panels that we have today. Thank you.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Yee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yee. Thank you very much, Mr. Chairman. Chairman Rohrabacher, Representative Sires, members of the subcommittee, I want to thank you for inviting me and my colleague, Susan Fritz, to appear before you today to discuss the Western Balkans 20 years since the Dayton Accords were signed. We are deeply grateful to the Congress and this subcommittee, in particular, for your interest in the Western Balkans which are an integral part of our vision of a Europe, whole, free, and at peace. Your engagement with senior Balkan officials, both here and in the region has sent a powerful signal that the United States remains committed to the region's future.    Today that vision is more under threat than any time since the end of the Cold War. Russia's aggression in Ukraine and ISIL's reign of terror in Syria and Iraq have underlined the geostrategic importance of a strong, stable Europe including in the Western Balkans. In this new context, our work with Balkan partners to create a space for free markets and free peoples is more important than ever.    EU and NATO membership, aided by U.S. engagement and assistance remains the transformative political and economic force for the Western Balkans. Progress is happening. Albania and Croatia joined NATO in 2009. Croatia became the 28th EU member in 2013. Montenegro is making steady progress on EU accession negotiations and is intent on qualifying for NATO membership. Albania's recent elections were the best democratic transition in that country's history. Serbia and Kosovo are making landmark progress toward normalization. And lastly, Bosnia and Herzegovina has negotiated its EU Stabilization and Association Agreement. I would like to give just a quick update on the region's seven countries.    Bosnia and Herzegovina. Bosnia and Herzegovina remains one of the poorest countries in Europe and lags far behind the rest of the region in reforms needed for membership in the European Union and NATO. To catch up, Bosnia and Herzegovina will need to accelerate reforms. We and our European partners have urged Bosnia and Herzegovina to begin with socio-economic reforms that can make a tangible impact in the lives of Bosnia and Herzegovina citizens. These initial reforms must lead to institutional and political reforms that Bosnia and Herzegovina needs to become a stable, functional state, fully integrated with the rest of Europe. We believe that the future of Bosnia and Herzegovina lies in the EU and NATO, and like all other candidates Bosnia and Herzegovina will have to undertake substantial reform.    With the recent establishment of new state and entity-level governments that have reaffirmed their commitment to reform, we are hopeful the countries' leaders can deliver results.    Serbia. Serbia continues to improve relations with its neighbors and to build a stronger partnership with the European Union and the United states.    In January, Serbia assumed the chairmanship of the Organization for Security and Cooperation in Europe, the OSCE, and Serbia's leadership thus far has shown a strong commitment to supporting the organization's founding principles. We continue to support Serbia's aspirations to join the European Union and to commend Serbia's progress toward this goal.    Serbia has also recently taken steps to maintain constructive relations with neighbors, including Belgrade's hosting of Albanian Prime Minister Rama in November 2014, the first visit at that level between the two countries in 68 years. Most encouraging, Serbia's commitment to the EU-led Brussels dialogue with Kosovo has resulted in more normalized relationships, increased regional security, and mutual understanding.    Kosovo. Seven years after its declaration of independence, Kosovo has taken great strides to develop as a full sovereign, independent state. We continue to support Kosovo in its efforts to build a modern, multiethnic state with inclusive, democratic institutions. With the strong support of EU High Representative Mogherini, considerable progress on the Kosovo-Serbia dialogue has been made since both sides reconvened in February 2015, including with agreements to unify Kosovo's judicial system and to integrate the Kosovo-Serb Civilian Protection Corps into Kosovo institutions.    We also support the establishment of a Special Court to deal with the allegations contained in the 2011 Council of Europe report and urge Kosovo's leaders to take steps to approve the necessary legal framework.    Albania. Albania has seen significant democratic progress since the ending of oppressive communist rule 20 years ago. Last June, the European Council granted Albania EU country candidate status. In granting the status, the Council highlighted Albania's efforts at countering corruption and organized crime, and implementing judicial reform.    With over 1 year in office, the new government continues to hold Albania's strong partnership with the United States as a key strategic priority. We recently signed a U.S.-Albania strategic partnership, outlining key areas of cooperation, including security, rule of law, economic development and energy security. Nevertheless, much work lies ahead.    Despite receiving EU candidate status, Albania will face significant challenges implementing the reforms necessary for beginning EU accession talks.    Montenegro. Montenegro which began EU accession talks in June 2013 has come a long way. However, the European Union noted in October, a lack of credible investigations, prosecutions, and final convictions in corruption cases and serious concerns regarding freedom of expression and the media.    NATO has also urged Montenegro to strengthen the rule of law to improve its case for receiving an invitation to join NATO by the end of 2015. We agree with our NATO allies that no one outside the 28 member states, including Russia can interfere with or veto NATO's decisions on membership. We are also concerned about the relatively low level of Montenegrin public support for NATO membership, currently about 38 percent. Our hope is that Montenegro will accelerate the pace of its efforts and put its best case forward this year.    Macedonia. We support Macedonia's aspirations to join NATO and the European Union. Recently, however, we and our European partners have been following with concern the domestic political crisis in Macedonia related to the release of wiretap information by the head of the main opposition party. We are urging the government to address the leaked information in a way that demonstrates its commitment to Euro-Atlantic principles. We are encouraging the opposition which is currently boycotting Parliament to return to that body and help resolve the crisis. We are also concerned about a growing divide between the ethic-Macedonian majority and ethnic-Albanian minority communities.    Macedonia's integration into the EU and NATO remains important for achieving lasting peace and stability in the region. With a new government in Athens, we continue to urge both sides to arrive at a mutually acceptable solution to the so-called name issue which has blocked the country's Euro-Atlantic prospects.    Croatia. In July 2013, Croatia became the newest EU member and is now sharing lessons it learned with its neighbors who aspire to join the EU and NATO. Yet, challenges still lie ahead. The economy has contracted for the last 6 years, causing high unemployment and deterring further foreign investment. We encourage Croatia to take steps to improve the business climate, attract more investment and foster private sector led growth. Although much more work needs to be done, we welcome the recent tender for a business plan to develop the liquid natural gas, or LNG, terminal on Krk Island. The realization of this terminal will not only help Croatia reduce dependency on Russia or any other single source of gas, but also provide energy diversification for other central European countries who are much more dependent on Russian energy supplies.    Thank you, Mr. Chairman, Ranking Member Meeks, members of the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. We have been joined by Mr. Meeks and with your permission, Mr. Meeks, I will have Ms. Fritz' testimony and then you will be able to give your opening statement, etcetera.</t>
   </si>
   <si>
+    <t>Fritz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fritz. Thank you, Mr. Chairman, Chairman Rohrabacher, Ranking Member Meeks, and Congressman Sires. I want to thank you for the opportunity to appear before you today, along with my colleague, Hoyt Yee, to discuss USAID's assistance and priorities in the Balkans    The mission of the U.S. Agency for International Development is to partner to end extreme poverty and promote resilient, democratic societies while advancing our security and prosperity. In the Balkans, USAID has played a key role since the breakup of Yugoslavia, helping raise standards of living and assisting countries on their path toward Euro-Atlantic integration and to becoming more tolerant, stable, and democratic societies. USAID is committed and focused on how we build on this momentum to address the serious remaining challenges as part of a coordinated U.S. Government strategy. Corruption, democratic drift, fragile economies, and uncertain domestic political climates all threaten the gains made since the Dayton Accords were signed 20 years ago.    Today, I would like to build on Deputy Assistant Secretary Hoyt Yee's updates on the five individual countries where USAID continues to work with a particular focus on how our programs have impacted some of the foreign policy priorities DAS Yee mentioned, such as preventing violent extremism, supporting governments and societies in becoming more stable and resilient to potentially detrimental external influences, and strengthening the region's economic health.    USAID's longstanding role in the Balkans and across Europe and Eurasia is to work with host countries, civil society, private sector and international partners to build the institutions of government, the economic systems, and the free civil societies that lead to democracy and prosperity. Our job is to help build the foundations of ``a Europe Whole, Free, and at Peace.''    Let me highlight a few examples of our democracy and governance activities in the region. In Bosnia and Herzegovina, USAID's assistance to Parliament staff and members has helped them to complete their legally mandated budget process which includes public debates on priorities and impact analyses, leading to more functional and accountable institutions across the entire government that better meet the needs of the citizens.    In Serbia and Kosovo, our activities have strengthened rule of law by improving the independence, transparency, efficiency and professionalism of the judiciary. Our anti-corruption assistance in Serbia has been pivotal to increasing the transparency and overall capacity of key independent agencies to execute their mandates.    In Macedonia, USAID's media program has increased the legitimacy of independent media and strengthened freedom of expression by promoting investigative journalism and establishing a media fact-checking service which has published online more than a thousand peer reviews of media articles.    In Albania, USAID is providing assistance to strengthen local government accountability, financing and services including the crafting of a fiscal decentralization framework and a critical law for the structuring of local government. In the economic sphere, USAID programs in the Balkans are bolstering entrepreneurs as well, as the laws and policies have let them thrive in stable financial systems.    We help governments to establish energy policies, to diversify supplies, and connect to European markets, increasing safe, clean power for industry and citizens.    Let me highlight a few examples of our economic growth efforts. In Bosnia, USAID's assistance and loan guarantees, particularly to small agribusinesses is helping to increase sales and exports. Our Farmer Project, for example, reported increased sales for companies assisted by USAID of 54 percent over 4 years. USAID helped the Albanian Government to achieve critical reports in the energy market, resulting in the electricity company saving $75 million last year through implementation of practical loss reduction techniques that were provided by our advisors.    USAID's critical support to Kosovo's Government to unbundle electricity distribution and supply enabled it to privatize the Kosovo Energy Corporation resulting in improved infrastructure investment, billing and collections, reducing technical and commercial losses.    In Macedonia, we are helping streamline laws and regulations for clean, renewable energy to promote more investment in the sector. We have also expanded access to finance for small and medium businesses.    In Serbia, USAID assistance was instrumental in reforming Serbia's labor law, reducing the burdens of its inspection system and is modernizing its outdated construction permitting system.    USAID is working to improve the competitiveness of the private sector, especially economically disadvantaged regions populated by ethnic minorities.    Mr. Chairman, since Dayton, the Balkan countries have made remarkable progress in the reforms needed to further integrate into Euro-Atlantic institutions and to build resilient democracies. With that said, we know that our work in this region is far from done. We recognize, as you have pointed out, that there has been political and economic stagnation in the region. The Balkan countries where USAID works, Albania, Macedonia, Kosovo, Serbia, and Bosnia and Herzegovina need continued U.S. engagement and attention.    We look forward to working with you and your colleagues in Congress to strengthen U.S. engagement and more specifically, USAID's activities in the Balkans to build on the progress that has been made to achieve our goal of a Europe, free, whole and at peace.    Thank you again and I look forward to your questions.</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman, and I want to thank you for holding this hearing to provide us with the status update on the Western Balkans region and I look forward to working with you in this 114th Congress on this region and as we have been talking about look forward to visiting this region soon so that we can go and see for ourselves what is going on on the ground.    With the West's attention justifiably being attracted to the Ukraine and related issues, we must not forget the importance and the delicate state of progress in the Western Balkans and I am encouraged by this hearing on the region to reaffirm our stance support for its peaceful and prosperous future.    Today's hearing is for me an opportunity to examine the tough issues and potential for advancements for a region that has a lot of promise. The quagmire of the Balkan Wars of the 1990s gives us a reference point for today's hearing. As the region spiraled into chaos, the United States and NATO led an international effort to put an end to the killing. The war set the region back in its move toward democracy and free-market capitalization and continued to haunt its citizens and policy makers. Western thinkers tend to present the Western Balkans' history and current events through two different lenses in my opinion, one that reckons that outside involvement played the leading role in getting us to the wars and consequently the current situation, while the other claims that the fate of Yugoslavia was doomed regardless of what outsiders did.    In today's hearing, I would like to argue the role of the Balkan people themselves who are often dismissed in these discussions. As much as recently written histories and international bodies affect the current situations here, it is the decisions of local politicians, businesses, and citizens that will definitely decide where this region will go. It is up to us and Congress to support healthy democratic, economic, and peaceful progress on the ground. We, the United States, have invested billions of dollars and many lives in order to ensure peace and prosperity in the region. The people there who have sacrificed more deserved it. In fact, there are signs of promise across the region. The regions are over a decade without armed conflict. Croatia, a reliable NATO partner, joined the EU in July 2013. And Serbia is technically on track to follow suit later this decade.    Freedom House named Kosovo, an electoral democracy for the first in their 2015 report. Montenegro recently passed substantial reforms to the rule of law and the defense and intelligent sectors, taking it closer to NATO membership. These are all encouraging steps in the right direction that should be recognized and supported.    Nevertheless, change is rarely linear and we will examine the breaks that impede progress as they apply to specific states. Sluggish economic growth, continuing problems in the fight against corruption, and serious questions with regard to the rule of law beset the region with an undertow pulling against the progress that had been made.    How can Congress support regional actors in combating these forces? And what about the EU? How much progress can be made without a bold accession strategy from the regional power, the EU. Ensuring the success of the region's development and encouraging democratic progress is of strategic importance to the United States and our interest are critically linked.    So I hope, as I have heard some of the testimony already, the opinions on this fascinating region, the leaders of the governments there should know that we are concerned with the state of affairs and after this hearing we look forward to following up on what is discussed. The fragile piece of the region is one that we, together with our EU partners must work hard at and encouraging.    I look forward to a fruitful discussion and questions that we can explore what Congress can offer and do to help to ensure economic growth, equality and peace for all in the region.    Thank you for giving me that opportunity, Mr. Chairman.</t>
   </si>
   <si>
@@ -280,6 +307,9 @@
     <t xml:space="preserve">    Mr. Rohrabacher. This hearing will come to order. I wonder if someone could close that door.</t>
   </si>
   <si>
+    <t>DioGuardi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DioGuardi. The reason why they opened it was it got so warm, but now that a lot of people have left, maybe it is better. Just close one side. All right, close them both. The State Department has left, so it is nice and cool now.</t>
   </si>
   <si>
@@ -290,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. A former Member of Congress, and a prominent Albanian-American leader. He worked to focus the attention of the American Government on the Balkans. He is responsible for helping to bring about the first congressional hearing on Kosovo that we ever had. That goes all the way back to 1987 and today he is president of the Albanian American Civic League and is very active in the region. So we are very pleased to have both of you with us today. I would ask you to take 5 minutes and then we will go into questions from there. First, Mr. Vejvoda.</t>
+  </si>
+  <si>
+    <t>Vejvoda</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vejvoda. Mr. Chairman, thank you very much for your kind introduction and thank you again for organizing this hearing. As you said, there hasn't been one in 2 years and I would submit to you that that is already a sign of progress. That means that there hasn't been anything radical in the region that would provoke a hearing. And I would like to try and say why I believe there has been progress over all these years and it is an honor to be testifying with the Honorable DioGuardi. Thank you so much.    This is about the integration post Second World War Europe, a part of Europe that was left behind the Iron Curtain. Of course, the former Yugoslavia was not. It was in between NATO and the Warsaw Pact, a relatively independent country in terms of its foreign policy. And it slumbered into complete destruction when everybody thought there would never be war in Europe at the end of the 20th century. My country disappeared in front of me and is today seven countries.    Why has there been progress? Well, very simply because there has been serious reconciliation. We haven't talked at all about regional cooperation which is very intense. Just to give you two examples, the military intelligences of all the countries regularly meet twice a year to exchange experiences, youth meets, cultural festivals. There has been a reconstitution of the cultural and societal space after a conflict rather rapidly. We like to say in the region, I am from Belgrade myself, that wars are quick to happen, but they also subside very quickly and people get back to their business.    In spite of all the difficulties that remain, I need not remind you and this country that the scars of the Civil War remain after a long time, after that conflict as we celebrate 150 years of the end of the War. I think here we have moved very rapidly. And the fact that we have a European Union that is, in essence, a peace project after World War II and having to impede war is the main reason why these countries want to join, because they were not democratic. They were not encompassed by this peace project and the fact that the European Union has been so long as peace is one of the key reasons why they want to join. Nobody in the region is oblivious to the fact that Europe has problems, that the Euro zone is in crisis, that growth rates are slow.    And let me just give you one financial statistic. Greece, at the height of the crisis in 2010, had a GDP of $300 billion. If you put all the GDPs of all the former six Yugoslav republics, it barely reached $200 billion. What I am saying is these are small countries. They are weak economies. They had growth rates up until Lehman Brothers disappeared off the streets of New York of 7 to 8 percent. And thus, we suffered with the rest of the world back to low growth rates of 1 to 2 percent, minus 1 percent. And I would say there is nothing unusual in the Balkans about that because that is what happened to the rest of the world.    These countries are highly dependent on foreign direct investments. If you look at the trade patterns, we are fully trading with the European Union and the United States. We have many companies from the U.S. in the region. And in fact, they were calling from the Senate, Chris Murphy visited the region recently and was able to see for himself.    In comparison, Russia is very low on all of those charts in terms of aid and public forums and we can get back to that if you wish.    So what I am saying is that the European Union has put in a lot of money. USAID has been a key actor as has been the U.S. Government. Only yesterday, the German Foreign Minister Steinmeier visited Belgrade to see how things were progressing. He gave high marks for the reforms in Serbia and of course, complimented both Kosovo and Serbia on the advance they were making. These are historical, difficult challenges. And the fact that the leaders of both Kosovo and Serbia have found it in themselves to make this historical compromise and to move forward with all the difficulties, I would submit to you that it is great progress.    Of course, the fact that the growth rates are low that we have very high youth unemployment. In Bosnia, youth unemployment is above 60 percent. And the fact that we have a brain drain again is not unusual. Look at Spain. Look at Italy. Look at Portugal. Lots of young professionals, IT, are moving north into Scandinavia and into Germany. Again, I want to relativize the fact that we have problems because those of us around us have problems.    But I would like to underscore that it is about politics and geopolitics here. This region is what I call the inner courtyard of Europe. We are surrounded in the Western Balkans by full EU, full NATO member states. And all of the governments for the past 15 years, I take the fall of Milosevic as kind of the last hurdle, as the region moves forward, have determined to both join the EU and to join NATO except Serbia that still seeks a situation of neutrality. And the fact that there is this determination in spite of all is very important. And thus, I think, an invitation coming to Montenegro to join NATO, of course, if the marks are high in the boxes that it has to tick off, is most welcome because it demonstrates that the open-door policy of NATO is the reality. After 2009, so it is 6 years since the last enlargement round of NATO, and taking in Montenegro which would make the full northern coast of the Mediterranean, that is the only little part that remains not part of NATO would be symbolically and geopolitically very important.    And so the EU is working very hard and I would like to underscore the role of Germany. Along with other EU member states, it has taken a lead role. Chancellor Merkel has convened something called the Berlin Process. All the prime ministers of the region were convened to Berlin. They will meet again in Vienna in August and they were in Brussels just 10 days ago with the High Representative Mogherini to look at concrete infrastructure projects. Serbia and Kosovo are negotiating a highway that they will build together. A railroad is being built, a high-speed one between Belgrade and Budapest. So in spite of these difficulties and no one wants to underestimate them or neglect them, that is what life is about, to confront the challenges. I would say that there is leadership.    And I would also like to underscore the importance of civil society and the strength that it has and it requires full support from donors like USA, from the Balkan Trust that is still active. And thus this combination of leadership with support from the United States and the European Union, I think, will help us achieve that Europe whole, free, and at peace that is, I think, a common goal to all of us.    Thank you, Mr. Chairman.</t>
@@ -854,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,3581 +917,4193 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>97</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>102</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>102</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>102</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>102</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>102</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>102</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>102</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>102</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>102</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>102</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>102</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>102</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>102</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>97</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>97</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>102</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>102</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>97</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>102</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>97</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>102</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>102</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94387.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rohrabacher</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
   </si>
   <si>
     <t>400271</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Meeks</t>
@@ -887,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,7 +907,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,4190 +932,4504 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>101</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>101</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>102</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>102</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>106</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>102</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>106</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>106</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>102</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>106</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>102</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>106</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>102</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>106</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>102</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>102</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>102</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>102</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>106</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>102</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>106</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>102</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>106</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>102</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>106</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>102</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>106</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>102</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>106</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>102</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>106</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>102</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>106</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>97</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>101</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>97</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>102</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>106</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>102</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>106</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>97</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>101</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>102</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>106</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>97</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>101</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>102</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>106</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>102</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>106</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>174</v>
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
